--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_275__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_275__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5426,7 +5426,7 @@
                   <c:v>96.62919616699219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59.56935501098633</c:v>
+                  <c:v>59.56935882568359</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>30.97799110412598</c:v>
@@ -5453,10 +5453,10 @@
                   <c:v>97.78240966796875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.78276062011719</c:v>
+                  <c:v>89.78277587890625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>77.68550109863281</c:v>
+                  <c:v>77.68551635742188</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>39.42512512207031</c:v>
@@ -5465,7 +5465,7 @@
                   <c:v>73.47055816650391</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>73.57022094726562</c:v>
+                  <c:v>73.57022857666016</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>9.93092155456543</c:v>
@@ -5474,22 +5474,22 @@
                   <c:v>97.85800170898438</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>82.15170288085938</c:v>
+                  <c:v>82.15168762207031</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>57.52219009399414</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63.58947372436523</c:v>
+                  <c:v>63.5894775390625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.76648330688477</c:v>
+                  <c:v>56.76648712158203</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>89.99263000488281</c:v>
+                  <c:v>89.99261474609375</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96.72666931152344</c:v>
+                  <c:v>96.72665405273438</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>93.96485900878906</c:v>
@@ -5510,16 +5510,16 @@
                   <c:v>53.92602920532227</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>79.49574279785156</c:v>
+                  <c:v>79.49575805664062</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>97.62997436523438</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>86.78794860839844</c:v>
+                  <c:v>86.7879638671875</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>84.63996887207031</c:v>
+                  <c:v>84.63998413085938</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>38.47010803222656</c:v>
@@ -5528,7 +5528,7 @@
                   <c:v>89.23580932617188</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96.90507507324219</c:v>
+                  <c:v>96.90509033203125</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>60.78641128540039</c:v>
@@ -5546,7 +5546,7 @@
                   <c:v>86.00714111328125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>79.67320251464844</c:v>
+                  <c:v>79.6732177734375</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>91.47378540039062</c:v>
@@ -5564,13 +5564,13 @@
                   <c:v>96.91909790039062</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>84.05442810058594</c:v>
+                  <c:v>84.05441284179688</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>86.84281921386719</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>98.04179382324219</c:v>
+                  <c:v>98.04180908203125</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>73.86651611328125</c:v>
@@ -5588,7 +5588,7 @@
                   <c:v>79.38755798339844</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>52.11531448364258</c:v>
+                  <c:v>52.11531829833984</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>97.38066101074219</c:v>
@@ -5597,7 +5597,7 @@
                   <c:v>47.60991287231445</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>86.2034912109375</c:v>
+                  <c:v>86.20350646972656</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>99.94596862792969</c:v>
@@ -5627,7 +5627,7 @@
                   <c:v>81.40878295898438</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>68.12632751464844</c:v>
+                  <c:v>68.12633514404297</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>82.43605041503906</c:v>
@@ -5639,13 +5639,13 @@
                   <c:v>97.53944396972656</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>28.49731826782227</c:v>
+                  <c:v>28.49732208251953</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>66.90788269042969</c:v>
+                  <c:v>66.90789031982422</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>84.96205139160156</c:v>
+                  <c:v>84.96206665039062</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>60.15870666503906</c:v>
@@ -5654,7 +5654,7 @@
                   <c:v>84.006103515625</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>61.84209442138672</c:v>
+                  <c:v>61.84210205078125</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>53.43551254272461</c:v>
@@ -5666,13 +5666,13 @@
                   <c:v>97.20852661132812</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>85.66464233398438</c:v>
+                  <c:v>85.66465759277344</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>59.57207107543945</c:v>
+                  <c:v>59.57207489013672</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>90.05995178222656</c:v>
+                  <c:v>90.05996704101562</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>96.71391296386719</c:v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>59.56935501098633</v>
+        <v>59.56935882568359</v>
       </c>
       <c r="G5">
         <v>126</v>
@@ -6691,7 +6691,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F14">
-        <v>89.78276062011719</v>
+        <v>89.78277587890625</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>79.27419999999999</v>
       </c>
       <c r="F15">
-        <v>77.68550109863281</v>
+        <v>77.68551635742188</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6771,7 +6771,7 @@
         <v>72.99850000000001</v>
       </c>
       <c r="F18">
-        <v>73.57022094726562</v>
+        <v>73.57022857666016</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>80.21729999999999</v>
       </c>
       <c r="F21">
-        <v>82.15170288085938</v>
+        <v>82.15168762207031</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>63.58947372436523</v>
+        <v>63.5894775390625</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>56.76648330688477</v>
+        <v>56.76648712158203</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F25">
-        <v>89.99263000488281</v>
+        <v>89.99261474609375</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>96.85760000000001</v>
       </c>
       <c r="F26">
-        <v>96.72666931152344</v>
+        <v>96.72665405273438</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>80.55459999999999</v>
       </c>
       <c r="F33">
-        <v>79.49574279785156</v>
+        <v>79.49575805664062</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>86.1662</v>
       </c>
       <c r="F35">
-        <v>86.78794860839844</v>
+        <v>86.7879638671875</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>83.9868</v>
       </c>
       <c r="F36">
-        <v>84.63996887207031</v>
+        <v>84.63998413085938</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>96.90507507324219</v>
+        <v>96.90509033203125</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>78.7594</v>
       </c>
       <c r="F45">
-        <v>79.67320251464844</v>
+        <v>79.6732177734375</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>83.31910000000001</v>
       </c>
       <c r="F51">
-        <v>84.05442810058594</v>
+        <v>84.05441284179688</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>97.3824</v>
       </c>
       <c r="F53">
-        <v>98.04179382324219</v>
+        <v>98.04180908203125</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>52.11531448364258</v>
+        <v>52.11531829833984</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>87.61150000000001</v>
       </c>
       <c r="F62">
-        <v>86.2034912109375</v>
+        <v>86.20350646972656</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>67.25879999999999</v>
       </c>
       <c r="F72">
-        <v>68.12632751464844</v>
+        <v>68.12633514404297</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>28.0807</v>
       </c>
       <c r="F76">
-        <v>28.49731826782227</v>
+        <v>28.49732208251953</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>64.7646</v>
       </c>
       <c r="F77">
-        <v>66.90788269042969</v>
+        <v>66.90789031982422</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F78">
-        <v>84.96205139160156</v>
+        <v>84.96206665039062</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>61.7399</v>
       </c>
       <c r="F81">
-        <v>61.84209442138672</v>
+        <v>61.84210205078125</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>85.0705</v>
       </c>
       <c r="F85">
-        <v>85.66464233398438</v>
+        <v>85.66465759277344</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>59.665</v>
       </c>
       <c r="F86">
-        <v>59.57207107543945</v>
+        <v>59.57207489013672</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>92.9709</v>
       </c>
       <c r="F87">
-        <v>90.05995178222656</v>
+        <v>90.05996704101562</v>
       </c>
     </row>
     <row r="88" spans="1:6">
